--- a/SubRES_TMPL/SubRes_BioRefineries_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_BioRefineries_Trans.xlsx
@@ -525,9 +525,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
-    <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
+    <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
+    <xsd:import namespace="424ab569-3a9e-4e02-994b-fd1ed8ea43ac"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -538,6 +539,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -545,7 +548,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a32fc56-8470-4d77-ad86-bef2a7229878" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -564,6 +567,36 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -686,13 +719,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76B70093-384D-4726-859E-410BF518EA2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73411B20-3269-4821-B65C-7725D476EFAA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A0F64C-222B-42E1-AAA1-8EFC05632E20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536B08FA-E959-46EC-9C5B-89BE5E92AAB2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A30A69E-E5DE-42CD-A7EE-15B762D13ADA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01080088-7665-483A-8E2F-D35853573A8E}"/>
 </file>